--- a/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>003378</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>泰康策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>24.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003378</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康策略优选灵活配置混合</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>15.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.43</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006478</t>
+          <t>005014</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛多因子策略优选股票</t>
+          <t>泰康景泰回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>58.13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>006478</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>长盛多因子策略优选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -716,15 +796,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>36.34</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2217,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,17 +2229,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2248,14 +2269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.96</v>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2264,14 +2307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.26</v>
       </c>
     </row>
     <row r="4">
@@ -2280,14 +2345,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.82</v>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2296,14 +2383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.2</v>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2312,13 +2421,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2502,7 +2503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,17 +2514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2533,14 +2554,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -2549,14 +2592,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.96</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
@@ -2565,14 +2698,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="5">
@@ -2581,14 +2714,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.82</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="6">
@@ -2597,14 +2730,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.2</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="7">
@@ -2613,13 +2746,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.66</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.96</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.82</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.44</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,7 +1240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1887,7 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2645,7 +2870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603489-八方股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.66</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.96</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.82</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>1.2</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.44</v>
       </c>
     </row>
@@ -616,7 +633,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -956,7 +1389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +1673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1714,7 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2112,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2624,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2868,136 +3301,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003378</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8933</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519087</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新华优选分红混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5418</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>